--- a/Assets/Excel/TestData.xlsx
+++ b/Assets/Excel/TestData.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGraduation\Assets\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D420CC4C-D65B-4DDC-819A-9AA65933E309}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A64AC5F-0840-4784-A776-5BBA9CE53F49}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3780" xr2:uid="{558728A4-F6E8-4745-B513-8C984AA20940}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,27 +22,27 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>Path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PanelName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ceshi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ces</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
+    <t>tid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -55,19 +50,21 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -90,17 +87,13 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -130,7 +123,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{6442F6B5-67C0-4CFD-AAF5-E1D34908B286}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{657A2E3A-75DE-4A4F-8121-EB763ECF23EB}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -147,7 +140,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -163,7 +156,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -175,7 +168,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -192,7 +185,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -222,29 +215,12 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -274,23 +250,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -442,39 +401,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{748A97DA-691E-465F-81D6-EA937230BF9E}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="1" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
